--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374730.3093411505</v>
+        <v>371210.1409002088</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2821214.707946067</v>
+        <v>2254375.780409608</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19391774.39632784</v>
+        <v>18836215.56344936</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5047777.832429197</v>
+        <v>5283740.252330175</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.21387696367704</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50.19740799690857</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T3" t="n">
-        <v>44.21387696367703</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.626473537507714</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.547657929861283</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>43.55459982911465</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="G5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -978,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G6" t="n">
-        <v>50.19740799690857</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="H6" t="n">
-        <v>44.21387696367703</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9.626473537507742</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.77440971783335</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.547657929861283</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I8" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>43.55459982911461</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T10" t="n">
-        <v>24.40088325534112</v>
+        <v>1.547657929861283</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H11" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I11" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.55459982911465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1540,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1689,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I16" t="n">
-        <v>9.626473537507769</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J16" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K16" t="n">
         <v>14.77440971783335</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.19701966463789</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>54.19701966463789</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>47.73673492061303</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>54.19701966463789</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>242.2819443339098</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.73673492061304</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>54.19701966463789</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>54.19701966463789</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>54.19701966463789</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>145.8355658494302</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.32206764769464</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>54.19701966463789</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18.62406031006298</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>18.62406031006286</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>153.4237150659563</v>
+        <v>96.59279268362367</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -2248,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>32.75410523180391</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C23" t="n">
-        <v>99.73835480560622</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>109.4978049731337</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>76.10211501474778</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,10 +2456,10 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U26" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="W26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>167.4979332891071</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>141.8508227008771</v>
-      </c>
-      <c r="S26" t="n">
-        <v>205.8649517235392</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>41.43010407512099</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>78.71964920959023</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>72.41037162139078</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2789,73 +2791,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="D29" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="F29" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>274.2838073416025</v>
@@ -2874,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -2886,10 +2888,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>46.79741078693939</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,7 +2927,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>151.0710621994796</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2956,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,23 +3028,23 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>264.3952212715415</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>155.30126914813</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>168.9616139056444</v>
@@ -3165,13 +3167,13 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>145.8355658494302</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>241.5891775064833</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>274.2838073416025</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,13 +3350,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>128.7900131399769</v>
       </c>
       <c r="F36" t="n">
-        <v>17.76425168466131</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3509,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>240.9299003719209</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="V38" t="n">
         <v>274.2838073416025</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3584,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>120.4271153629306</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3594,13 +3596,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>86.07223874166426</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3658,64 +3660,64 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.2841956738732</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>270.2841956738732</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>15.10120235312715</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y41" t="n">
-        <v>270.2841956738732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38.29656656082142</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
@@ -3825,19 +3827,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>128.2699682503134</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3940,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>99.15242676576017</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>50.19740799690857</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>87.04291592812621</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>43.55459982911465</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>50.19740799690857</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>50.19740799690857</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>50.19740799690857</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>24.4008832553411</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>50.19740799690857</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.1291502061423</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="C2" t="n">
-        <v>156.1291502061423</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="D2" t="n">
-        <v>156.1291502061423</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="E2" t="n">
-        <v>156.1291502061423</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="F2" t="n">
-        <v>105.4246976840124</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="G2" t="n">
-        <v>54.72024516188256</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="H2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M2" t="n">
-        <v>47.68438300469032</v>
+        <v>51.80398302245153</v>
       </c>
       <c r="N2" t="n">
-        <v>97.3798169216298</v>
+        <v>105.459032490443</v>
       </c>
       <c r="O2" t="n">
-        <v>147.0752508385693</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P2" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q2" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R2" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S2" t="n">
-        <v>156.1291502061423</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="T2" t="n">
-        <v>156.1291502061423</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="U2" t="n">
-        <v>156.1291502061423</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="V2" t="n">
-        <v>156.1291502061423</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="W2" t="n">
-        <v>156.1291502061423</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="X2" t="n">
-        <v>156.1291502061423</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="Y2" t="n">
-        <v>156.1291502061423</v>
+        <v>59.08022588088608</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="C3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="D3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="E3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="F3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="G3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="H3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="I3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J3" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K3" t="n">
-        <v>11.40910348623759</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="L3" t="n">
-        <v>11.40910348623759</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="M3" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="N3" t="n">
-        <v>51.70333023681584</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O3" t="n">
-        <v>101.3987641537553</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P3" t="n">
-        <v>151.0941980706948</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R3" t="n">
-        <v>150.0851794655044</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S3" t="n">
-        <v>99.38072694337451</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="T3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="U3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="V3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="W3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="X3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="C4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="D4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="E4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="F4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="G4" t="n">
-        <v>191.0659213436871</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="H4" t="n">
-        <v>140.3614688215572</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="I4" t="n">
-        <v>89.65701629942731</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="J4" t="n">
-        <v>38.95256377729743</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K4" t="n">
-        <v>24.02891759766779</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L4" t="n">
-        <v>61.11543652438698</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M4" t="n">
-        <v>110.8108704413265</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N4" t="n">
-        <v>160.5063043582659</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O4" t="n">
-        <v>194.7288303079373</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P4" t="n">
-        <v>200.7896319876343</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q4" t="n">
-        <v>200.7896319876343</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R4" t="n">
-        <v>200.7896319876343</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7896319876343</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="U4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="V4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="W4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="X4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.7896319876343</v>
+        <v>19.25940775280068</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F5" t="n">
-        <v>156.7950867057003</v>
+        <v>169.2350909958742</v>
       </c>
       <c r="G5" t="n">
-        <v>106.0906341835704</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="H5" t="n">
-        <v>55.38618166144055</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="I5" t="n">
-        <v>4.681729139310681</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K5" t="n">
-        <v>53.71122655669217</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L5" t="n">
-        <v>103.4066604736316</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="M5" t="n">
-        <v>153.1020943905711</v>
+        <v>105.459032490443</v>
       </c>
       <c r="N5" t="n">
-        <v>196.7706847555088</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="O5" t="n">
-        <v>196.7706847555088</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P5" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D6" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E6" t="n">
-        <v>99.38072694337451</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="F6" t="n">
-        <v>99.38072694337451</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="G6" t="n">
-        <v>48.67627442124464</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="H6" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I6" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J6" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K6" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="L6" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="M6" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="N6" t="n">
-        <v>51.70333023681584</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O6" t="n">
-        <v>101.3987641537553</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="P6" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="C7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="D7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="E7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="F7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="G7" t="n">
-        <v>171.052796385772</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="H7" t="n">
-        <v>120.3483438636421</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="I7" t="n">
-        <v>69.6438913415122</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="J7" t="n">
-        <v>18.93943881938233</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K7" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L7" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M7" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N7" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O7" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q7" t="n">
-        <v>180.7765070297192</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R7" t="n">
-        <v>180.7765070297192</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S7" t="n">
-        <v>180.7765070297192</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="U7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="V7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="W7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="X7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="Y7" t="n">
-        <v>180.7765070297192</v>
+        <v>19.25940775280068</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.38618166144055</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C8" t="n">
-        <v>55.38618166144055</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D8" t="n">
-        <v>55.38618166144055</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E8" t="n">
-        <v>55.38618166144055</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F8" t="n">
-        <v>55.38618166144055</v>
+        <v>169.2350909958742</v>
       </c>
       <c r="G8" t="n">
-        <v>55.38618166144055</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="H8" t="n">
-        <v>55.38618166144055</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="I8" t="n">
-        <v>4.681729139310681</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K8" t="n">
-        <v>4.015792639752686</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L8" t="n">
-        <v>53.71122655669217</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="M8" t="n">
-        <v>97.3798169216298</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="N8" t="n">
-        <v>147.0752508385693</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="O8" t="n">
-        <v>147.0752508385693</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P8" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R8" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S8" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T8" t="n">
-        <v>55.38618166144055</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U8" t="n">
-        <v>55.38618166144055</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V8" t="n">
-        <v>55.38618166144055</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W8" t="n">
-        <v>55.38618166144055</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X8" t="n">
-        <v>55.38618166144055</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y8" t="n">
-        <v>55.38618166144055</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C9" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D9" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E9" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F9" t="n">
-        <v>4.015792639752686</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="G9" t="n">
-        <v>4.015792639752686</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="H9" t="n">
-        <v>4.015792639752686</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="I9" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J9" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K9" t="n">
-        <v>51.70333023681584</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L9" t="n">
-        <v>51.70333023681584</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="M9" t="n">
-        <v>51.70333023681584</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="N9" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="O9" t="n">
-        <v>101.3987641537553</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="P9" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R9" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S9" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T9" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U9" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V9" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W9" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X9" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="C10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="D10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="E10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="F10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="G10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="H10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="I10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="J10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L10" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M10" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N10" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O10" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P10" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.0720545075893</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R10" t="n">
-        <v>79.36760198545944</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S10" t="n">
-        <v>28.66314946332957</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="U10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="V10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="W10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="X10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.0906341835704</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C11" t="n">
-        <v>106.0906341835704</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D11" t="n">
-        <v>106.0906341835704</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E11" t="n">
-        <v>106.0906341835704</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F11" t="n">
-        <v>106.0906341835704</v>
+        <v>169.2350909958742</v>
       </c>
       <c r="G11" t="n">
-        <v>106.0906341835704</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="H11" t="n">
-        <v>55.38618166144055</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="I11" t="n">
-        <v>4.681729139310681</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K11" t="n">
-        <v>53.71122655669217</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L11" t="n">
-        <v>53.71122655669217</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M11" t="n">
-        <v>97.3798169216298</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="N11" t="n">
-        <v>147.0752508385693</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="O11" t="n">
-        <v>196.7706847555088</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P11" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y11" t="n">
-        <v>156.7950867057003</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F12" t="n">
-        <v>150.0851794655044</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G12" t="n">
-        <v>99.38072694337451</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H12" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J12" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K12" t="n">
-        <v>61.10453740317706</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L12" t="n">
-        <v>110.7999713201165</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="M12" t="n">
-        <v>151.0941980706948</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="N12" t="n">
-        <v>151.0941980706948</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O12" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S12" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="T12" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="U12" t="n">
-        <v>200.7896319876343</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="V12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="E13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="F13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="G13" t="n">
-        <v>4.015792639752686</v>
+        <v>183.4928006759458</v>
       </c>
       <c r="H13" t="n">
-        <v>4.015792639752686</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="I13" t="n">
-        <v>4.015792639752686</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J13" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K13" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L13" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M13" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N13" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O13" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R13" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S13" t="n">
-        <v>28.66314946332957</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C14" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D14" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E14" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F14" t="n">
-        <v>4.015792639752686</v>
+        <v>169.2350909958742</v>
       </c>
       <c r="G14" t="n">
-        <v>4.015792639752686</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="H14" t="n">
-        <v>4.015792639752686</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="I14" t="n">
-        <v>4.015792639752686</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K14" t="n">
-        <v>53.71122655669217</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L14" t="n">
-        <v>103.4066604736316</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="M14" t="n">
-        <v>153.1020943905711</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="N14" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="O14" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="P14" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R14" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S14" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T14" t="n">
-        <v>54.72024516188256</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U14" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V14" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W14" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X14" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.015792639752686</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C15" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D15" t="n">
-        <v>150.0851794655044</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E15" t="n">
-        <v>99.38072694337451</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F15" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J15" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K15" t="n">
-        <v>61.10453740317706</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="L15" t="n">
-        <v>61.10453740317706</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="M15" t="n">
-        <v>110.7999713201165</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="N15" t="n">
-        <v>110.7999713201165</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="O15" t="n">
-        <v>160.495405237056</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R15" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S15" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="T15" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="U15" t="n">
-        <v>200.7896319876343</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="V15" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W15" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X15" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="E16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="F16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="G16" t="n">
-        <v>79.36760198545944</v>
+        <v>183.4928006759458</v>
       </c>
       <c r="H16" t="n">
-        <v>79.36760198545944</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="I16" t="n">
-        <v>69.6438913415122</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J16" t="n">
-        <v>18.93943881938233</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K16" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L16" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M16" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N16" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O16" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K17" t="n">
-        <v>57.99081104116254</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L17" t="n">
-        <v>57.99081104116254</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M17" t="n">
-        <v>105.459032490443</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N17" t="n">
-        <v>105.459032490443</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O17" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P17" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>162.0436143508365</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S17" t="n">
-        <v>107.2991500431215</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T17" t="n">
-        <v>59.08022588088608</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U17" t="n">
-        <v>4.335761573171031</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>11.72907241965593</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L18" t="n">
-        <v>65.38412188764744</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="M18" t="n">
-        <v>65.38412188764744</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N18" t="n">
-        <v>119.039171355639</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O18" t="n">
-        <v>119.039171355639</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P18" t="n">
-        <v>172.6942208236305</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>168.5691544963162</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S18" t="n">
-        <v>113.8246901886011</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T18" t="n">
-        <v>59.08022588088608</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U18" t="n">
-        <v>4.335761573171031</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V18" t="n">
-        <v>4.335761573171031</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L19" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M19" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N19" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O19" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>168.5691544963162</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
-        <v>113.8246901886011</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>853.1057571376389</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C20" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D20" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E20" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F20" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G20" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H20" t="n">
         <v>21.9427045873282</v>
@@ -5753,19 +5755,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K20" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L20" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N20" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O20" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P20" t="n">
         <v>1093.116282134284</v>
@@ -5774,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>1097.13522936641</v>
+        <v>1078.323047235033</v>
       </c>
       <c r="S20" t="n">
-        <v>1097.13522936641</v>
+        <v>1078.323047235033</v>
       </c>
       <c r="T20" t="n">
-        <v>871.9179392690156</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U20" t="n">
-        <v>871.9179392690156</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V20" t="n">
-        <v>871.9179392690156</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W20" t="n">
-        <v>871.9179392690156</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X20" t="n">
-        <v>871.9179392690156</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y20" t="n">
-        <v>871.9179392690156</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.9427045873282</v>
+        <v>306.2741181727158</v>
       </c>
       <c r="C21" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="D21" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="E21" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="G21" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5829,16 +5831,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K21" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L21" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M21" t="n">
-        <v>548.9545891439176</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N21" t="n">
         <v>630.6851405540922</v>
@@ -5862,19 +5864,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U21" t="n">
-        <v>870.2087878843885</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V21" t="n">
-        <v>635.9575444099894</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="W21" t="n">
-        <v>383.4430527433227</v>
+        <v>610.3694942253441</v>
       </c>
       <c r="X21" t="n">
-        <v>176.9161541489002</v>
+        <v>403.8425956309216</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.9161541489002</v>
+        <v>403.8425956309216</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F22" t="n">
-        <v>949.4998542049913</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L22" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M22" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N22" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O22" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>399.7428683723875</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C23" t="n">
-        <v>298.9970554374318</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D23" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E23" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F23" t="n">
         <v>21.9427045873282</v>
@@ -6011,28 +6013,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R23" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S23" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T23" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U23" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
-        <v>676.7972192224911</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W23" t="n">
-        <v>676.7972192224911</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X23" t="n">
-        <v>676.7972192224911</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y23" t="n">
-        <v>399.7428683723875</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>244.1248465017388</v>
+        <v>333.7791511073939</v>
       </c>
       <c r="C24" t="n">
-        <v>244.1248465017388</v>
+        <v>333.7791511073939</v>
       </c>
       <c r="D24" t="n">
-        <v>133.521003094533</v>
+        <v>186.1908444663378</v>
       </c>
       <c r="E24" t="n">
-        <v>133.521003094533</v>
+        <v>186.1908444663378</v>
       </c>
       <c r="F24" t="n">
-        <v>133.521003094533</v>
+        <v>186.1908444663378</v>
       </c>
       <c r="G24" t="n">
-        <v>133.521003094533</v>
+        <v>186.1908444663378</v>
       </c>
       <c r="H24" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I24" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J24" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K24" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L24" t="n">
-        <v>270.0203090292462</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M24" t="n">
-        <v>541.5612782974326</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N24" t="n">
-        <v>630.6851405540922</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O24" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P24" t="n">
         <v>1097.13522936641</v>
@@ -6090,28 +6092,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S24" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T24" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U24" t="n">
-        <v>870.2087878843885</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V24" t="n">
-        <v>870.2087878843885</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W24" t="n">
-        <v>617.6942962177218</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="X24" t="n">
-        <v>411.1673976232993</v>
+        <v>333.7791511073939</v>
       </c>
       <c r="Y24" t="n">
-        <v>411.1673976232993</v>
+        <v>333.7791511073939</v>
       </c>
     </row>
     <row r="25">
@@ -6166,25 +6168,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R25" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S25" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T25" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U25" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X25" t="n">
         <v>21.9427045873282</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>468.8528235421485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C26" t="n">
-        <v>468.8528235421485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D26" t="n">
-        <v>468.8528235421485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E26" t="n">
-        <v>468.8528235421485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F26" t="n">
-        <v>468.8528235421485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G26" t="n">
-        <v>191.7984726920449</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H26" t="n">
-        <v>191.7984726920449</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I26" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J26" t="n">
         <v>21.9427045873282</v>
@@ -6230,46 +6232,46 @@
         <v>143.241092649432</v>
       </c>
       <c r="L26" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N26" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O26" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P26" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q26" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R26" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S26" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T26" t="n">
-        <v>745.907174392252</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U26" t="n">
-        <v>745.907174392252</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V26" t="n">
-        <v>745.907174392252</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="W26" t="n">
-        <v>745.907174392252</v>
+        <v>63.79129456219789</v>
       </c>
       <c r="X26" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y26" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>267.8376091820674</v>
+        <v>724.3642424684999</v>
       </c>
       <c r="C27" t="n">
-        <v>95.08449410388454</v>
+        <v>551.6111273903171</v>
       </c>
       <c r="D27" t="n">
-        <v>95.08449410388454</v>
+        <v>404.0228207492609</v>
       </c>
       <c r="E27" t="n">
-        <v>95.08449410388454</v>
+        <v>246.4132917521156</v>
       </c>
       <c r="F27" t="n">
-        <v>95.08449410388454</v>
+        <v>101.4575017687325</v>
       </c>
       <c r="G27" t="n">
-        <v>95.08449410388454</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H27" t="n">
-        <v>95.08449410388454</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I27" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M27" t="n">
-        <v>277.9660032696079</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N27" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O27" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P27" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
@@ -6330,25 +6332,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S27" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U27" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V27" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W27" t="n">
-        <v>473.5660449584169</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X27" t="n">
-        <v>473.5660449584169</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y27" t="n">
-        <v>267.8376091820674</v>
+        <v>891.4067935900604</v>
       </c>
     </row>
     <row r="28">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>820.0808785163064</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="C29" t="n">
-        <v>820.0808785163064</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D29" t="n">
-        <v>576.0514062875353</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E29" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J29" t="n">
         <v>21.9427045873282</v>
@@ -6503,10 +6505,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X29" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y29" t="n">
-        <v>820.0808785163064</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>499.1540951430621</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="C30" t="n">
-        <v>499.1540951430621</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="D30" t="n">
-        <v>351.565788502006</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="E30" t="n">
-        <v>351.565788502006</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F30" t="n">
-        <v>206.6099985186229</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G30" t="n">
-        <v>69.21281649332758</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H30" t="n">
-        <v>69.21281649332758</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I30" t="n">
         <v>21.9427045873282</v>
@@ -6543,16 +6545,16 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K30" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L30" t="n">
-        <v>277.4136198757311</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M30" t="n">
-        <v>548.9545891439176</v>
+        <v>440.1189437601505</v>
       </c>
       <c r="N30" t="n">
-        <v>549.5069725377944</v>
+        <v>711.659913028337</v>
       </c>
       <c r="O30" t="n">
         <v>817.386591515115</v>
@@ -6573,19 +6575,19 @@
         <v>726.0805366250836</v>
       </c>
       <c r="U30" t="n">
-        <v>499.1540951430621</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="V30" t="n">
-        <v>499.1540951430621</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="W30" t="n">
-        <v>499.1540951430621</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="X30" t="n">
-        <v>499.1540951430621</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="Y30" t="n">
-        <v>499.1540951430621</v>
+        <v>573.4835041003568</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C31" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D31" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E31" t="n">
-        <v>916.4148994253914</v>
+        <v>948.6760130298451</v>
       </c>
       <c r="F31" t="n">
         <v>916.4148994253914</v>
@@ -6652,19 +6654,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U31" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V31" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W31" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X31" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="C32" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="D32" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="E32" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="F32" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="C32" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="D32" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="E32" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="F32" t="n">
-        <v>21.9427045873282</v>
       </c>
       <c r="G32" t="n">
         <v>21.9427045873282</v>
@@ -6704,19 +6706,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P32" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q32" t="n">
         <v>1097.13522936641</v>
@@ -6731,16 +6733,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.13522936641</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="W32" t="n">
-        <v>820.0808785163064</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="X32" t="n">
-        <v>576.0514062875353</v>
+        <v>843.1172863597994</v>
       </c>
       <c r="Y32" t="n">
         <v>576.0514062875353</v>
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.9427045873282</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="C33" t="n">
-        <v>21.9427045873282</v>
+        <v>326.4009800648793</v>
       </c>
       <c r="D33" t="n">
-        <v>21.9427045873282</v>
+        <v>178.8126734238232</v>
       </c>
       <c r="E33" t="n">
         <v>21.9427045873282</v>
@@ -6783,16 +6785,16 @@
         <v>168.577974491964</v>
       </c>
       <c r="L33" t="n">
-        <v>416.655578933882</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M33" t="n">
-        <v>476.5364731046047</v>
+        <v>440.1189437601505</v>
       </c>
       <c r="N33" t="n">
-        <v>748.0774423727912</v>
+        <v>711.659913028337</v>
       </c>
       <c r="O33" t="n">
-        <v>1015.957061350112</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P33" t="n">
         <v>1015.957061350112</v>
@@ -6801,28 +6803,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R33" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>830.8154377838487</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T33" t="n">
-        <v>630.4290419169106</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U33" t="n">
-        <v>403.5026004348891</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="V33" t="n">
-        <v>169.25135696049</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="W33" t="n">
-        <v>169.25135696049</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="X33" t="n">
-        <v>21.9427045873282</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="Y33" t="n">
-        <v>21.9427045873282</v>
+        <v>499.1540951430621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M34" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U34" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>820.0808785163064</v>
+      </c>
+      <c r="C35" t="n">
         <v>543.0265276662028</v>
-      </c>
-      <c r="C35" t="n">
-        <v>298.9970554374318</v>
       </c>
       <c r="D35" t="n">
         <v>298.9970554374318</v>
@@ -6938,19 +6940,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K35" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L35" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N35" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P35" t="n">
         <v>1093.116282134284</v>
@@ -6977,7 +6979,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X35" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y35" t="n">
         <v>820.0808785163064</v>
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>517.8373438740774</v>
+        <v>324.786742029124</v>
       </c>
       <c r="C36" t="n">
-        <v>345.0842287958946</v>
+        <v>152.0336269509412</v>
       </c>
       <c r="D36" t="n">
-        <v>197.4959221548385</v>
+        <v>152.0336269509412</v>
       </c>
       <c r="E36" t="n">
-        <v>39.88639315769316</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F36" t="n">
         <v>21.9427045873282</v>
@@ -7014,25 +7016,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L36" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M36" t="n">
-        <v>416.655578933882</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N36" t="n">
-        <v>630.6851405540922</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O36" t="n">
-        <v>898.564759531413</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P36" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
@@ -7041,25 +7043,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T36" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U36" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="V36" t="n">
-        <v>1097.13522936641</v>
+        <v>491.8292931506845</v>
       </c>
       <c r="W36" t="n">
-        <v>1097.13522936641</v>
+        <v>491.8292931506845</v>
       </c>
       <c r="X36" t="n">
-        <v>890.6083307719874</v>
+        <v>491.8292931506845</v>
       </c>
       <c r="Y36" t="n">
-        <v>684.8798949956379</v>
+        <v>491.8292931506845</v>
       </c>
     </row>
     <row r="37">
@@ -7114,19 +7116,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V37" t="n">
         <v>21.9427045873282</v>
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>543.0265276662028</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C38" t="n">
-        <v>543.0265276662028</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D38" t="n">
-        <v>543.0265276662028</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E38" t="n">
-        <v>265.9721768160992</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F38" t="n">
-        <v>265.9721768160992</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="G38" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H38" t="n">
-        <v>22.60864108688619</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I38" t="n">
-        <v>22.60864108688619</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J38" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K38" t="n">
         <v>143.241092649432</v>
@@ -7205,19 +7207,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U38" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V38" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W38" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X38" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y38" t="n">
-        <v>543.0265276662028</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.0926782448495</v>
+        <v>559.0379855035231</v>
       </c>
       <c r="C39" t="n">
-        <v>808.4491273732024</v>
+        <v>559.0379855035231</v>
       </c>
       <c r="D39" t="n">
-        <v>660.8608207321463</v>
+        <v>411.449678862467</v>
       </c>
       <c r="E39" t="n">
-        <v>503.251291735001</v>
+        <v>253.8401498653217</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2955017516178</v>
+        <v>108.8843598819386</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8983197263226</v>
+        <v>108.8843598819386</v>
       </c>
       <c r="H39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I39" t="n">
         <v>21.9427045873282</v>
@@ -7257,16 +7259,16 @@
         <v>168.577974491964</v>
       </c>
       <c r="L39" t="n">
-        <v>416.655578933882</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M39" t="n">
-        <v>549.5069725377944</v>
+        <v>440.1189437601505</v>
       </c>
       <c r="N39" t="n">
-        <v>549.5069725377944</v>
+        <v>711.659913028337</v>
       </c>
       <c r="O39" t="n">
-        <v>817.386591515115</v>
+        <v>979.5395320056577</v>
       </c>
       <c r="P39" t="n">
         <v>1015.957061350112</v>
@@ -7278,25 +7280,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T39" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U39" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="V39" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="W39" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="X39" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="Y39" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
     </row>
     <row r="40">
@@ -7363,19 +7365,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>294.6370747184282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="C41" t="n">
-        <v>21.62273565390985</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="D41" t="n">
-        <v>21.62273565390985</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E41" t="n">
-        <v>21.62273565390985</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F41" t="n">
-        <v>21.62273565390985</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G41" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H41" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I41" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J41" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K41" t="n">
-        <v>142.9211237160136</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L41" t="n">
-        <v>345.3715781673772</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M41" t="n">
-        <v>585.8490106289726</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N41" t="n">
-        <v>814.7004443669421</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O41" t="n">
-        <v>968.9915346827825</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P41" t="n">
-        <v>1077.117835463367</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q41" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S41" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T41" t="n">
-        <v>855.9194925980984</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U41" t="n">
-        <v>840.6657528474649</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V41" t="n">
-        <v>840.6657528474649</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="W41" t="n">
-        <v>840.6657528474649</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="X41" t="n">
-        <v>840.6657528474649</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="Y41" t="n">
-        <v>567.6514137829465</v>
+        <v>265.9721768160992</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>835.9264835345839</v>
+        <v>471.8497508018332</v>
       </c>
       <c r="C42" t="n">
-        <v>663.173368456401</v>
+        <v>299.0966357236504</v>
       </c>
       <c r="D42" t="n">
-        <v>515.5850618153448</v>
+        <v>151.5083290825943</v>
       </c>
       <c r="E42" t="n">
-        <v>357.9755328181996</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>357.9755328181996</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
-        <v>220.5783507929042</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H42" t="n">
-        <v>109.0000522856994</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.01604650039475</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K42" t="n">
-        <v>168.2580055585457</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L42" t="n">
-        <v>416.3356100004637</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M42" t="n">
-        <v>416.3356100004637</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N42" t="n">
-        <v>533.8067911270633</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O42" t="n">
-        <v>801.3881448441978</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P42" t="n">
-        <v>999.9586146791947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W42" t="n">
-        <v>1081.136782695493</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="X42" t="n">
-        <v>874.6098841010702</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="Y42" t="n">
-        <v>874.6098841010702</v>
+        <v>638.8923019233937</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L43" t="n">
-        <v>58.70925458062905</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M43" t="n">
-        <v>108.4046884975685</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N43" t="n">
-        <v>162.05973796556</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O43" t="n">
-        <v>196.2822639152314</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P43" t="n">
-        <v>202.3430655949284</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q43" t="n">
-        <v>121.7767020839706</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>121.7767020839706</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>21.62273565390985</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.38618166144055</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C44" t="n">
-        <v>55.38618166144055</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D44" t="n">
-        <v>55.38618166144055</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E44" t="n">
-        <v>55.38618166144055</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F44" t="n">
-        <v>4.681729139310681</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G44" t="n">
-        <v>4.681729139310681</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H44" t="n">
-        <v>4.681729139310681</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I44" t="n">
-        <v>4.681729139310681</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J44" t="n">
-        <v>4.015792639752686</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K44" t="n">
-        <v>53.71122655669217</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L44" t="n">
-        <v>97.3798169216298</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M44" t="n">
-        <v>97.3798169216298</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N44" t="n">
-        <v>147.0752508385693</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O44" t="n">
-        <v>147.0752508385693</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P44" t="n">
-        <v>196.7706847555088</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S44" t="n">
-        <v>200.7896319876343</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T44" t="n">
-        <v>200.7896319876343</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U44" t="n">
-        <v>200.7896319876343</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="V44" t="n">
-        <v>200.7896319876343</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W44" t="n">
-        <v>156.7950867057003</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X44" t="n">
-        <v>106.0906341835704</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y44" t="n">
-        <v>106.0906341835704</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>48.67627442124464</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C45" t="n">
-        <v>48.67627442124464</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D45" t="n">
-        <v>48.67627442124464</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E45" t="n">
-        <v>48.67627442124464</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F45" t="n">
-        <v>48.67627442124464</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G45" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H45" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I45" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>51.70333023681584</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L45" t="n">
-        <v>51.70333023681584</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M45" t="n">
-        <v>51.70333023681584</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N45" t="n">
-        <v>51.70333023681584</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O45" t="n">
-        <v>101.3987641537553</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P45" t="n">
-        <v>151.0941980706948</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>200.7896319876343</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V45" t="n">
-        <v>150.0851794655044</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W45" t="n">
-        <v>150.0851794655044</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X45" t="n">
-        <v>99.38072694337451</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.67627442124464</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L46" t="n">
-        <v>41.10231156647188</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M46" t="n">
-        <v>90.79774548341136</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N46" t="n">
-        <v>140.4931794003508</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O46" t="n">
-        <v>174.7157053500222</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>156.1291502061423</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>105.4246976840124</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V46" t="n">
-        <v>54.72024516188256</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>268.6972646339017</v>
+        <v>272.5352758302076</v>
       </c>
       <c r="N2" t="n">
-        <v>273.8751450035847</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O2" t="n">
-        <v>274.5431641330531</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P2" t="n">
-        <v>275.6495788582964</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q2" t="n">
         <v>220.8075902863009</v>
@@ -8058,25 +8060,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>188.5924226646379</v>
       </c>
       <c r="L3" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>179.2819222159661</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>172.5974196195541</v>
       </c>
       <c r="O3" t="n">
-        <v>189.2287463302419</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P3" t="n">
-        <v>180.8224552258806</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.6796377307795</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8146,7 +8148,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N4" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O4" t="n">
         <v>169.5633330205178</v>
@@ -8216,22 +8218,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>264.7850127657646</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L5" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>274.7849853934995</v>
+        <v>272.5352758302076</v>
       </c>
       <c r="N5" t="n">
-        <v>267.7874242439869</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O5" t="n">
         <v>224.3457561361446</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q5" t="n">
         <v>220.8075902863009</v>
@@ -8295,7 +8297,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>175.0966421419982</v>
+        <v>188.5924226646379</v>
       </c>
       <c r="L6" t="n">
         <v>135.0905202853774</v>
@@ -8304,16 +8306,16 @@
         <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>172.5974196195541</v>
       </c>
       <c r="O6" t="n">
-        <v>189.2287463302419</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>180.8224552258806</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.6796377307795</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8383,7 +8385,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N7" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O7" t="n">
         <v>169.5633330205178</v>
@@ -8453,22 +8455,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>214.587604768856</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L8" t="n">
-        <v>280.0696625926461</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M8" t="n">
-        <v>268.6972646339017</v>
+        <v>272.5352758302076</v>
       </c>
       <c r="N8" t="n">
-        <v>273.8751450035847</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O8" t="n">
         <v>224.3457561361446</v>
       </c>
       <c r="P8" t="n">
-        <v>275.6495788582964</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q8" t="n">
         <v>220.8075902863009</v>
@@ -8532,7 +8534,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>175.0966421419982</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>135.0905202853774</v>
@@ -8541,16 +8543,16 @@
         <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>182.2551889458879</v>
       </c>
       <c r="O9" t="n">
-        <v>189.2287463302419</v>
+        <v>183.5705886716374</v>
       </c>
       <c r="P9" t="n">
-        <v>180.8224552258806</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.6796377307795</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8620,7 +8622,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N10" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O10" t="n">
         <v>169.5633330205178</v>
@@ -8690,22 +8692,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>264.7850127657646</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L11" t="n">
         <v>229.8722545957376</v>
       </c>
       <c r="M11" t="n">
-        <v>268.6972646339017</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N11" t="n">
-        <v>273.8751450035847</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O11" t="n">
-        <v>274.5431641330531</v>
+        <v>272.2934545697612</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4521708613878</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8769,22 +8771,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>184.5928109969086</v>
+        <v>134.395403</v>
       </c>
       <c r="L12" t="n">
-        <v>185.2879282822859</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
-        <v>179.2819222159661</v>
+        <v>183.119933412272</v>
       </c>
       <c r="N12" t="n">
-        <v>128.05816928125</v>
+        <v>182.2551889458879</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P12" t="n">
-        <v>180.8224552258806</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q12" t="n">
         <v>136.482229733871</v>
@@ -8857,7 +8859,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N13" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O13" t="n">
         <v>169.5633330205178</v>
@@ -8927,16 +8929,16 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>264.7850127657646</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L14" t="n">
-        <v>280.0696625926461</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M14" t="n">
-        <v>274.7849853934995</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N14" t="n">
-        <v>267.7874242439869</v>
+        <v>271.6254354402928</v>
       </c>
       <c r="O14" t="n">
         <v>224.3457561361446</v>
@@ -9006,22 +9008,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>184.5928109969086</v>
+        <v>178.9346533383041</v>
       </c>
       <c r="L15" t="n">
-        <v>135.0905202853774</v>
+        <v>189.2875399500152</v>
       </c>
       <c r="M15" t="n">
-        <v>188.7780910708764</v>
+        <v>192.7777027386057</v>
       </c>
       <c r="N15" t="n">
-        <v>128.05816928125</v>
+        <v>182.2551889458879</v>
       </c>
       <c r="O15" t="n">
-        <v>189.2287463302419</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>171.3262863709702</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
         <v>136.482229733871</v>
@@ -9094,7 +9096,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N16" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O16" t="n">
         <v>169.5633330205178</v>
@@ -9164,22 +9166,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>272.5352758302076</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N17" t="n">
-        <v>223.6777370066762</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P17" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
         <v>220.8075902863009</v>
@@ -9243,25 +9245,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>189.2875399500152</v>
+        <v>327.5816281580458</v>
       </c>
       <c r="M18" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N18" t="n">
-        <v>182.2551889458879</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>184.8220668936099</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>181.0214800721751</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9401,7 +9403,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L20" t="n">
         <v>434.3676631324684</v>
@@ -9477,19 +9479,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>210.6142818167799</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9714,10 +9716,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9726,13 +9728,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N24" t="n">
-        <v>218.0822725708051</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O24" t="n">
-        <v>409.6168120477987</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
         <v>136.482229733871</v>
@@ -9951,19 +9953,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>139.1386460980858</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>402.3419766228525</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9972,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10191,19 +10193,19 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M30" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N30" t="n">
-        <v>128.6161323053679</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O30" t="n">
-        <v>409.6168120477987</v>
+        <v>245.8259630674526</v>
       </c>
       <c r="P30" t="n">
         <v>331.2012793855346</v>
@@ -10367,7 +10369,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10431,19 +10433,19 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
-        <v>199.0664347615666</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N33" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O33" t="n">
-        <v>409.6168120477987</v>
+        <v>245.8259630674526</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
         <v>218.4803792452831</v>
@@ -10586,7 +10588,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L35" t="n">
         <v>434.3676631324684</v>
@@ -10662,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10671,19 +10673,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>206.5344255155917</v>
       </c>
       <c r="N36" t="n">
-        <v>344.2496456653007</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10905,19 +10907,19 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M39" t="n">
-        <v>272.7740099466066</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>167.4104304051884</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11072,13 +11074,13 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O41" t="n">
-        <v>380.1953423137611</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11139,25 +11141,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>138.5806830739679</v>
+        <v>221.1367956094978</v>
       </c>
       <c r="N42" t="n">
-        <v>246.7159279949869</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O42" t="n">
-        <v>409.3155340072065</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11297,22 +11299,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>264.7850127657646</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>273.9819418330483</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N44" t="n">
-        <v>273.8751450035847</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>275.6495788582964</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
         <v>220.8075902863009</v>
@@ -11376,25 +11378,25 @@
         <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>182.5646328960234</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>136.0841230593931</v>
       </c>
       <c r="O45" t="n">
-        <v>189.2287463302419</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>180.8224552258806</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.6796377307795</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11464,7 +11466,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N46" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O46" t="n">
         <v>169.5633330205178</v>
@@ -22556,13 +22558,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>357.0964554836323</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
-        <v>364.6573574069224</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H2" t="n">
-        <v>287.9464953912448</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I2" t="n">
         <v>205.224307868124</v>
@@ -22595,7 +22597,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>161.6510747598622</v>
+        <v>151.6679320589013</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -22610,10 +22612,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>323.1248642105563</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="3">
@@ -22644,7 +22646,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3061354685631</v>
+        <v>38.76680854485863</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.49757176418265</v>
+        <v>40.49796009645333</v>
       </c>
       <c r="S3" t="n">
-        <v>118.7642059087358</v>
+        <v>114.7645942410065</v>
       </c>
       <c r="T3" t="n">
-        <v>154.1686549445917</v>
+        <v>144.1855122436308</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
@@ -22717,16 +22719,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>158.2631153926004</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>111.4366640120083</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>103.5611388004951</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>38.64143693087037</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S4" t="n">
-        <v>222.3574069614225</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T4" t="n">
-        <v>228.3324659915077</v>
+        <v>226.7848080616464</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -22793,16 +22795,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>363.7392636514262</v>
+        <v>360.2164056944902</v>
       </c>
       <c r="G5" t="n">
-        <v>364.6573574069224</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H5" t="n">
-        <v>287.9464953912448</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I5" t="n">
-        <v>155.0268998712154</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22866,19 +22868,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>105.8360257102653</v>
+        <v>101.8364140425359</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>89.3092124189114</v>
       </c>
       <c r="G6" t="n">
-        <v>85.82580220813375</v>
+        <v>88.28647528442929</v>
       </c>
       <c r="H6" t="n">
-        <v>66.24863855845575</v>
+        <v>56.26549585749488</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -22954,16 +22956,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>158.2631153926003</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>111.4366640120083</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>103.5611388004951</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>38.64143693087037</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S7" t="n">
-        <v>222.3574069614225</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T7" t="n">
-        <v>228.3324659915077</v>
+        <v>226.7848080616464</v>
       </c>
       <c r="U7" t="n">
         <v>286.0522703910642</v>
@@ -23030,16 +23032,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>407.2938634805408</v>
+        <v>360.2164056944902</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I8" t="n">
-        <v>155.0268998712154</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>91.65341470396851</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>155.6675437266307</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>179.4105173673057</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -23109,16 +23111,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>89.3092124189114</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>81.82619054040443</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>56.26549585749488</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>38.76680854485863</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.49757176418265</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>148.1851239113601</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>174.4597690702927</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>187.6948540759781</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -23203,7 +23205,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.56329187893961</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R10" t="n">
-        <v>123.1937396728737</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S10" t="n">
-        <v>172.159998964514</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T10" t="n">
-        <v>203.9315827361665</v>
+        <v>226.7848080616464</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>333.5190019944865</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23267,16 +23269,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>360.2164056944902</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H11" t="n">
-        <v>287.9464953912448</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I11" t="n">
-        <v>155.0268998712154</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>343.1324719221212</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23346,16 +23348,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>85.82580220813375</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H12" t="n">
-        <v>60.26510752522421</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>42.28966650179463</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,16 +23387,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>121.2248789850314</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>144.1855122436308</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>170.4601574025633</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>177.7117113750172</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -23428,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6340720089168</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>123.1937396728737</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
-        <v>172.159998964514</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T13" t="n">
-        <v>203.9315827361665</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U13" t="n">
         <v>286.0522703910642</v>
@@ -23504,19 +23506,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>360.2164056944902</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8547654038309</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H14" t="n">
-        <v>338.1439033881534</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>91.65341470396851</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>155.6675437266307</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
-        <v>178.7512402327433</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>201.2803555796359</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23577,16 +23579,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>91.80933324136529</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H15" t="n">
         <v>110.4625155221328</v>
@@ -23622,16 +23624,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9616139056444</v>
+        <v>121.2248789850314</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>144.1855122436308</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>170.4601574025633</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>177.7117113750172</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
@@ -23665,16 +23667,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8895889301081</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6340720089168</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1320732598959</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J16" t="n">
-        <v>38.64143693087037</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>123.1937396728737</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>87.65380303623918</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>151.6679320589013</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>175.2283822758073</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>197.2807439119065</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>86.25127718860955</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.95824484047818</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>114.7645942410065</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>144.1855122436308</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>170.4601574025633</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>104.1537809005699</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -23938,16 +23940,16 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>206.0353393137279</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
-        <v>174.1354463268698</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U19" t="n">
-        <v>231.8552507264263</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V19" t="n">
-        <v>198.7393314023013</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>365.0923496813321</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C20" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
@@ -23984,7 +23986,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H20" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
         <v>205.224307868124</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>123.2267623908142</v>
       </c>
       <c r="S20" t="n">
         <v>205.8649517235392</v>
@@ -24032,10 +24034,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.94841054438854</v>
+        <v>68.77933292672115</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -24063,7 +24065,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24102,7 +24104,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24136,10 +24138,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>135.1354836983041</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H22" t="n">
         <v>161.6340720089168</v>
@@ -24178,7 +24180,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T22" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U22" t="n">
         <v>286.0522703910642</v>
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C23" t="n">
-        <v>267.2467408733364</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D23" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>165.7046859740575</v>
       </c>
       <c r="G23" t="n">
         <v>414.8547654038309</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
         <v>205.8649517235392</v>
@@ -24263,7 +24265,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -24272,7 +24274,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>36.61461860151182</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -24300,10 +24302,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>34.36040050738499</v>
       </c>
       <c r="I24" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>168.9616139056444</v>
@@ -24342,10 +24344,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R25" t="n">
         <v>173.3911476697823</v>
@@ -24421,13 +24423,13 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
-        <v>153.783924301179</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070089</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24455,16 +24457,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H26" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
-        <v>37.72637457901689</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>329.4314950560484</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>57.30356099545209</v>
       </c>
       <c r="H27" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
-        <v>14.09317184408089</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,10 +24572,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
         <v>224.6571770672012</v>
@@ -24582,7 +24584,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>126.0551953070217</v>
       </c>
       <c r="D29" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>414.8547654038309</v>
@@ -24701,7 +24703,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24743,7 +24745,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y29" t="n">
         <v>112.4032644096333</v>
@@ -24762,10 +24764,10 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24774,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>39.70613267853228</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>73.58611486772165</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24844,10 +24846,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="G31" t="n">
         <v>167.8895889301081</v>
@@ -24892,7 +24894,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>107.1391437494558</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24923,13 +24925,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H32" t="n">
         <v>338.1439033881534</v>
@@ -24971,19 +24973,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>129.272421624686</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>122.2918504796943</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24998,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0.7321645590438095</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25053,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>58.62606375904809</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -25126,7 +25128,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U34" t="n">
         <v>286.0522703910642</v>
@@ -25135,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>125.3959181724593</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>115.015555248115</v>
       </c>
       <c r="E35" t="n">
         <v>108.834228413685</v>
@@ -25217,10 +25219,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25236,13 +25238,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>27.24342056719695</v>
       </c>
       <c r="F36" t="n">
-        <v>125.741980398888</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>136.0232102050423</v>
@@ -25281,25 +25283,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -25354,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R37" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
         <v>222.3574069614225</v>
@@ -25369,7 +25371,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
@@ -25397,22 +25399,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>173.92486503191</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I38" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25445,7 +25447,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>9.888586070061081</v>
       </c>
       <c r="V38" t="n">
         <v>54.24941418091686</v>
@@ -25457,7 +25459,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>50.59846856447035</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25482,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>24.39027678046851</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,10 +25520,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>224.6571770672012</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.170564849075447</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -25603,7 +25605,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>113.4322143175219</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>96.70090000506946</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -25640,7 +25642,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>173.2655878973476</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25679,22 +25681,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
-        <v>236.3765612234173</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y41" t="n">
-        <v>116.4028760773626</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>127.0755590495234</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25713,19 +25715,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>27.76346545686042</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25767,13 +25769,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25828,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>123.2049801956624</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U43" t="n">
         <v>286.0522703910642</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.5190019944865</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -25874,10 +25876,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>357.0964554836323</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
@@ -25886,7 +25888,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>164.4348476484182</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>306.9755171714399</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>320.6641911342608</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -25956,7 +25958,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>91.80933324136529</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
         <v>110.4625155221328</v>
@@ -25998,19 +26000,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>181.7113230427466</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>154.2642216115697</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>153.4737434216775</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="46">
@@ -26074,16 +26076,16 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>203.9315827361665</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>235.8548623941556</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V46" t="n">
-        <v>202.7389430700306</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>235.895168890507</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360247.1375892422</v>
+        <v>363228.7280991844</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360247.1375892422</v>
+        <v>363228.7280991843</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360247.137589242</v>
+        <v>363228.7280991843</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>360247.1375892421</v>
+        <v>363228.7280991843</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360247.1375892421</v>
+        <v>363228.7280991843</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363228.7280991843</v>
+        <v>519531.3715270524</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>519531.3715270523</v>
+        <v>519531.3715270524</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>519531.3715270524</v>
+        <v>519531.3715270523</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>516690.9017153498</v>
+        <v>519531.3715270525</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360247.1375892421</v>
+        <v>519531.3715270524</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60041.18959820703</v>
+        <v>60538.12134986404</v>
       </c>
       <c r="C2" t="n">
-        <v>60041.189598207</v>
+        <v>60538.12134986404</v>
       </c>
       <c r="D2" t="n">
-        <v>60041.18959820701</v>
+        <v>60538.12134986405</v>
       </c>
       <c r="E2" t="n">
-        <v>60041.18959820702</v>
+        <v>60538.12134986406</v>
       </c>
       <c r="F2" t="n">
-        <v>60041.18959820703</v>
+        <v>60538.12134986404</v>
       </c>
       <c r="G2" t="n">
-        <v>60538.12134986405</v>
+        <v>86588.56192117537</v>
       </c>
       <c r="H2" t="n">
-        <v>86588.56192117538</v>
+        <v>86588.56192117534</v>
       </c>
       <c r="I2" t="n">
-        <v>86588.56192117538</v>
+        <v>86588.56192117537</v>
       </c>
       <c r="J2" t="n">
-        <v>86588.56192117538</v>
+        <v>86588.56192117535</v>
       </c>
       <c r="K2" t="n">
         <v>86588.56192117535</v>
       </c>
       <c r="L2" t="n">
+        <v>86588.56192117535</v>
+      </c>
+      <c r="M2" t="n">
         <v>86588.56192117537</v>
       </c>
-      <c r="M2" t="n">
-        <v>86588.56192117535</v>
-      </c>
       <c r="N2" t="n">
-        <v>86588.56192117535</v>
+        <v>86588.56192117538</v>
       </c>
       <c r="O2" t="n">
-        <v>86115.15028589162</v>
+        <v>86588.56192117538</v>
       </c>
       <c r="P2" t="n">
-        <v>60041.18959820703</v>
+        <v>86588.56192117538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16822.30596014799</v>
+        <v>18162.66782107245</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1096.233563949593</v>
+        <v>60322.48720044085</v>
       </c>
       <c r="H3" t="n">
-        <v>59381.39609633415</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13133.85061794315</v>
+        <v>14180.32501313452</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>52964.10554124921</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.80100840272841</v>
+        <v>45.84313727727405</v>
       </c>
       <c r="C4" t="n">
-        <v>42.8010084027284</v>
+        <v>45.84313727727405</v>
       </c>
       <c r="D4" t="n">
-        <v>42.8010084027284</v>
+        <v>45.84313727727405</v>
       </c>
       <c r="E4" t="n">
-        <v>42.8010084027284</v>
+        <v>45.84313727727404</v>
       </c>
       <c r="F4" t="n">
-        <v>42.80100840272841</v>
+        <v>45.84313727727404</v>
       </c>
       <c r="G4" t="n">
-        <v>45.84313727727404</v>
+        <v>205.3193574873218</v>
       </c>
       <c r="H4" t="n">
         <v>205.3193574873218</v>
@@ -26454,10 +26456,10 @@
         <v>205.3193574873218</v>
       </c>
       <c r="O4" t="n">
-        <v>202.4212146328144</v>
+        <v>205.3193574873218</v>
       </c>
       <c r="P4" t="n">
-        <v>42.80100840272841</v>
+        <v>205.3193574873218</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="C5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="D5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="E5" t="n">
-        <v>3052.002406212041</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="F5" t="n">
-        <v>3052.002406212041</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="G5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="H5" t="n">
         <v>16676.45548636943</v>
@@ -26506,10 +26508,10 @@
         <v>16676.45548636943</v>
       </c>
       <c r="O5" t="n">
-        <v>16433.27909697149</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="P5" t="n">
-        <v>3052.002406212041</v>
+        <v>16676.45548636943</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6496.480223444269</v>
+        <v>5406.831595904332</v>
       </c>
       <c r="C6" t="n">
-        <v>23318.78618359223</v>
+        <v>23569.49941697677</v>
       </c>
       <c r="D6" t="n">
-        <v>23318.78618359224</v>
+        <v>23569.49941697679</v>
       </c>
       <c r="E6" t="n">
-        <v>56946.38618359225</v>
+        <v>57197.0994169768</v>
       </c>
       <c r="F6" t="n">
-        <v>56946.38618359226</v>
+        <v>57197.09941697678</v>
       </c>
       <c r="G6" t="n">
-        <v>56100.86585302719</v>
+        <v>9384.299876877762</v>
       </c>
       <c r="H6" t="n">
-        <v>10325.39098098448</v>
+        <v>69706.78707731859</v>
       </c>
       <c r="I6" t="n">
-        <v>69706.78707731864</v>
+        <v>69706.78707731862</v>
       </c>
       <c r="J6" t="n">
-        <v>56572.93645937549</v>
+        <v>55526.4620641841</v>
       </c>
       <c r="K6" t="n">
         <v>69706.78707731862</v>
@@ -26555,13 +26557,13 @@
         <v>69706.78707731862</v>
       </c>
       <c r="N6" t="n">
-        <v>69706.78707731862</v>
+        <v>69706.78707731864</v>
       </c>
       <c r="O6" t="n">
-        <v>69479.44997428732</v>
+        <v>16742.68153606942</v>
       </c>
       <c r="P6" t="n">
-        <v>56946.38618359226</v>
+        <v>69706.78707731864</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="F4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H4" t="n">
         <v>274.2838073416025</v>
@@ -26826,10 +26828,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O4" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="P4" t="n">
-        <v>50.19740799690857</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.999611667729326</v>
+        <v>220.0867876769646</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54.19701966463789</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>220.0867876769646</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50.19740799690857</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.999611667729326</v>
+        <v>220.0867876769646</v>
       </c>
       <c r="P4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44.10968723731074</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="N2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q2" t="n">
         <v>4.059542658712616</v>
@@ -34778,25 +34780,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>40.70123914199824</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="O3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O4" t="n">
         <v>34.56820802997106</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>50.19740799690857</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="N5" t="n">
-        <v>44.10968723731075</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q5" t="n">
         <v>4.059542658712616</v>
@@ -35015,7 +35017,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>40.70123914199824</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="O6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O7" t="n">
         <v>34.56820802997106</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L8" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M8" t="n">
-        <v>44.10968723731074</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="N8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q8" t="n">
         <v>4.059542658712616</v>
@@ -35252,7 +35254,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>40.70123914199824</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O9" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="P9" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O10" t="n">
         <v>34.56820802997106</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N11" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O11" t="n">
-        <v>50.19740799690857</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q11" t="n">
         <v>4.059542658712616</v>
@@ -35489,22 +35491,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>40.70123914199824</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P12" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N13" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O13" t="n">
         <v>34.56820802997106</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N14" t="n">
-        <v>44.10968723731075</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M15" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>40.70123914199823</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N16" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O16" t="n">
         <v>34.56820802997106</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M17" t="n">
-        <v>47.94769843361666</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O17" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771105</v>
       </c>
       <c r="P17" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
         <v>4.059542658712616</v>
@@ -35963,25 +35965,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L18" t="n">
-        <v>54.19701966463789</v>
+        <v>192.4911078726684</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>54.19701966463789</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.53925033830414</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L20" t="n">
         <v>204.4954085367308</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>82.55611253552989</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
@@ -36446,13 +36448,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N24" t="n">
-        <v>90.0241032895551</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O24" t="n">
-        <v>270.5854737144654</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P24" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>0.5579630241179461</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
@@ -36692,7 +36694,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5579630241179461</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O30" t="n">
-        <v>270.5854737144654</v>
+        <v>106.7946247341192</v>
       </c>
       <c r="P30" t="n">
         <v>200.5762321565626</v>
@@ -37087,7 +37089,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>60.48575168759873</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O33" t="n">
-        <v>270.5854737144654</v>
+        <v>106.7946247341192</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
         <v>81.99814951141209</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L35" t="n">
         <v>204.4954085367308</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>140.6484434930818</v>
@@ -37391,19 +37393,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>67.95374244162382</v>
       </c>
       <c r="N36" t="n">
-        <v>216.1914763840507</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L39" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>134.1933268726387</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>200.5762321565626</v>
+        <v>36.7853831762164</v>
       </c>
       <c r="Q39" t="n">
         <v>81.99814951141209</v>
@@ -37792,13 +37794,13 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O41" t="n">
-        <v>155.8495861776166</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P41" t="n">
         <v>109.2184856369541</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>82.55611253552989</v>
       </c>
       <c r="N42" t="n">
-        <v>118.657758713737</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O42" t="n">
-        <v>270.2841956738732</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>50.19740799690857</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L44" t="n">
-        <v>44.10968723731074</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N44" t="n">
-        <v>50.19740799690857</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P44" t="n">
-        <v>50.19740799690857</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q44" t="n">
         <v>4.059542658712616</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>8.025953778143149</v>
       </c>
       <c r="O45" t="n">
-        <v>50.19740799690857</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>50.19740799690857</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.19740799690857</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N46" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O46" t="n">
         <v>34.56820802997106</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371210.1409002088</v>
+        <v>269936.6577817869</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2254375.780409608</v>
+        <v>925407.278659208</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18836215.56344936</v>
+        <v>17533693.5348838</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5283740.252330175</v>
+        <v>6007405.114675583</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>122.5443985706642</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>54.19701966463789</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>54.19701966463789</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>54.19701966463789</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>145.8355658494302</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.547657929861283</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>47.07745778605062</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>54.19701966463789</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>50.25963987135707</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.547657929861283</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>47.07745778605062</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>54.19701966463789</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="H8" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>120.5033961666314</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.547657929861283</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>47.07745778605062</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G11" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H11" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>151.0570449507884</v>
       </c>
     </row>
     <row r="12">
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>54.19701966463789</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V12" t="n">
-        <v>54.19701966463789</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1542,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.547657929861279</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>47.07745778605062</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G14" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I14" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>18.62406031006298</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>54.19701966463789</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
-        <v>54.19701966463789</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="16">
@@ -1773,25 +1773,25 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.547657929861279</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>18.62406031006298</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>41.34658735133949</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>145.8355658494302</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U19" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>168.7978542790847</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>18.62406031006286</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>274.2838073416025</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.59279268362367</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,65 +2317,65 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C23" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.5891775064833</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>76.10211501474778</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="25">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>18.62406031006298</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="W26" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="X26" t="n">
-        <v>41.43010407512099</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>78.71964920959023</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="28">
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S29" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C29" t="n">
-        <v>240.9299003719209</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>190.9632541887276</v>
       </c>
       <c r="X29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>151.0710621994796</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>108.6461907720114</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>31.93850246840919</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>274.2838073416025</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>110.4896035485995</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
         <v>251.4777635765444</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>264.3952212715415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>155.30126914813</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,70 +3268,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D35" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
+        <v>87.68355978354147</v>
+      </c>
+      <c r="I35" t="n">
+        <v>205.224307868124</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>128.7900131399769</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>101.3104055776561</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="H38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>241.5891775064833</v>
+        <v>14.2515927007277</v>
       </c>
       <c r="V38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>86.07223874166426</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
@@ -3638,7 +3638,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>209.8033246544659</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>274.2838073416025</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,19 +3821,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>128.2699682503134</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>162.9731235254981</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="T43" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
         <v>205.8649517235392</v>
@@ -4033,13 +4033,13 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
-        <v>87.04291592812621</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>24.89607548178781</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>153.4237150659563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.08022588088608</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C2" t="n">
-        <v>59.08022588088608</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D2" t="n">
-        <v>59.08022588088608</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E2" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F2" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G2" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>4.335761573171031</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>4.335761573171031</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>51.80398302245153</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>105.459032490443</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>162.0436143508365</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T2" t="n">
-        <v>162.0436143508365</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="U2" t="n">
-        <v>162.0436143508365</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="V2" t="n">
-        <v>162.0436143508365</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W2" t="n">
-        <v>162.0436143508365</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X2" t="n">
-        <v>113.8246901886011</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y2" t="n">
-        <v>59.08022588088608</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C3" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>11.72907241965593</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>65.38412188764744</v>
+        <v>38.09606741079833</v>
       </c>
       <c r="L3" t="n">
-        <v>65.38412188764744</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M3" t="n">
-        <v>65.38412188764744</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N3" t="n">
-        <v>109.4779797225685</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O3" t="n">
-        <v>163.1330291905601</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P3" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>162.0436143508365</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>107.2991500431215</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T3" t="n">
-        <v>52.55468573540642</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U3" t="n">
-        <v>52.55468573540642</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V3" t="n">
-        <v>52.55468573540642</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W3" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X3" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y3" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O4" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P4" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>19.25940775280068</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>19.25940775280068</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>19.25940775280068</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>216.7880786585516</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C5" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D5" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E5" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F5" t="n">
-        <v>169.2350909958742</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G5" t="n">
-        <v>114.4906266881591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I5" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K5" t="n">
-        <v>57.99081104116254</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L5" t="n">
-        <v>57.99081104116254</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>105.459032490443</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>159.1140819584346</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X5" t="n">
-        <v>216.7880786585516</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y5" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216.7880786585516</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="C6" t="n">
-        <v>216.7880786585516</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D6" t="n">
-        <v>216.7880786585516</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E6" t="n">
-        <v>162.0436143508365</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F6" t="n">
-        <v>107.2991500431215</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G6" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>65.38412188764744</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>65.38412188764744</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M6" t="n">
-        <v>65.38412188764744</v>
+        <v>440.1189437601505</v>
       </c>
       <c r="N6" t="n">
-        <v>109.4779797225685</v>
+        <v>711.659913028337</v>
       </c>
       <c r="O6" t="n">
-        <v>109.4779797225685</v>
+        <v>979.5395320056577</v>
       </c>
       <c r="P6" t="n">
-        <v>163.1330291905601</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>216.7880786585516</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T6" t="n">
-        <v>216.7880786585516</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U6" t="n">
-        <v>216.7880786585516</v>
+        <v>603.8889963018272</v>
       </c>
       <c r="V6" t="n">
-        <v>216.7880786585516</v>
+        <v>603.8889963018272</v>
       </c>
       <c r="W6" t="n">
-        <v>216.7880786585516</v>
+        <v>603.8889963018272</v>
       </c>
       <c r="X6" t="n">
-        <v>216.7880786585516</v>
+        <v>397.3620977074047</v>
       </c>
       <c r="Y6" t="n">
-        <v>216.7880786585516</v>
+        <v>346.5947847060339</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O7" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>19.25940775280068</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>19.25940775280068</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>19.25940775280068</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>216.7880786585516</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="C8" t="n">
-        <v>216.7880786585516</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="D8" t="n">
-        <v>216.7880786585516</v>
+        <v>122.688517522284</v>
       </c>
       <c r="E8" t="n">
-        <v>216.7880786585516</v>
+        <v>122.688517522284</v>
       </c>
       <c r="F8" t="n">
-        <v>169.2350909958742</v>
+        <v>122.688517522284</v>
       </c>
       <c r="G8" t="n">
-        <v>114.4906266881591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H8" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>57.99081104116254</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>111.6458605091541</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>159.1140819584346</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>159.1140819584346</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T8" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U8" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V8" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W8" t="n">
-        <v>216.7880786585516</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="X8" t="n">
-        <v>216.7880786585516</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.7880786585516</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C9" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D9" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>162.0436143508365</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>107.2991500431215</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
-        <v>52.55468573540642</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L9" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="M9" t="n">
-        <v>11.72907241965593</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N9" t="n">
-        <v>65.38412188764744</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>109.4779797225685</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>163.1330291905601</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>216.7880786585516</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T9" t="n">
-        <v>216.7880786585516</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U9" t="n">
-        <v>216.7880786585516</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="V9" t="n">
-        <v>216.7880786585516</v>
+        <v>396.1777984425115</v>
       </c>
       <c r="W9" t="n">
-        <v>216.7880786585516</v>
+        <v>143.6633067758447</v>
       </c>
       <c r="X9" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y9" t="n">
-        <v>216.7880786585516</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N10" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O10" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P10" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>19.25940775280068</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>19.25940775280068</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>19.25940775280068</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C11" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D11" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E11" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F11" t="n">
-        <v>169.2350909958742</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G11" t="n">
-        <v>114.4906266881591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H11" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I11" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J11" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>4.335761573171031</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L11" t="n">
-        <v>4.335761573171031</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M11" t="n">
-        <v>57.99081104116254</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N11" t="n">
-        <v>111.6458605091541</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O11" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S11" t="n">
-        <v>216.7880786585516</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T11" t="n">
-        <v>216.7880786585516</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U11" t="n">
-        <v>216.7880786585516</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V11" t="n">
-        <v>216.7880786585516</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="W11" t="n">
-        <v>216.7880786585516</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="X11" t="n">
-        <v>216.7880786585516</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="Y11" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>11.72907241965593</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K12" t="n">
-        <v>11.72907241965593</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L12" t="n">
-        <v>11.72907241965593</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M12" t="n">
-        <v>55.82293025457702</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N12" t="n">
-        <v>109.4779797225685</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1330291905601</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S12" t="n">
-        <v>168.5691544963162</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T12" t="n">
-        <v>113.8246901886011</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U12" t="n">
-        <v>59.08022588088608</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V12" t="n">
-        <v>4.335761573171031</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W12" t="n">
-        <v>4.335761573171031</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X12" t="n">
-        <v>4.335761573171031</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G13" t="n">
-        <v>183.4928006759458</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H13" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I13" t="n">
-        <v>74.00387206051573</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J13" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L13" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M13" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N13" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O13" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C14" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D14" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E14" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F14" t="n">
-        <v>169.2350909958742</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G14" t="n">
-        <v>114.4906266881591</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H14" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I14" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>57.99081104116254</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L14" t="n">
-        <v>111.6458605091541</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M14" t="n">
-        <v>165.3009099771456</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N14" t="n">
-        <v>212.7691314264261</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O14" t="n">
-        <v>212.7691314264261</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P14" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R14" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S14" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T14" t="n">
-        <v>216.7880786585516</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U14" t="n">
-        <v>216.7880786585516</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V14" t="n">
-        <v>216.7880786585516</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="W14" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X14" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y14" t="n">
-        <v>216.7880786585516</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82293025457702</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L15" t="n">
-        <v>109.4779797225685</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1330291905601</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N15" t="n">
-        <v>216.7880786585516</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O15" t="n">
-        <v>216.7880786585516</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P15" t="n">
-        <v>216.7880786585516</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q15" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S15" t="n">
-        <v>168.5691544963162</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T15" t="n">
-        <v>113.8246901886011</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08022588088608</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V15" t="n">
-        <v>4.335761573171031</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W15" t="n">
-        <v>4.335761573171031</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X15" t="n">
-        <v>4.335761573171031</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="C16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="D16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="E16" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F16" t="n">
-        <v>185.0560915141895</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G16" t="n">
-        <v>183.4928006759458</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>128.7483363682308</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>74.00387206051573</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
-        <v>19.25940775280068</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L16" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M16" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N16" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O16" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="W16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="X16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="Y16" t="n">
-        <v>185.0560915141895</v>
+        <v>27.52046112452624</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.9427045873282</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="C17" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D17" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E17" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F17" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G17" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H17" t="n">
         <v>21.9427045873282</v>
@@ -5527,7 +5527,7 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N17" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O17" t="n">
         <v>984.9899813536997</v>
@@ -5539,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>520.6898842948577</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U17" t="n">
-        <v>266.6719412882472</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V17" t="n">
-        <v>21.9427045873282</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W17" t="n">
-        <v>21.9427045873282</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="X17" t="n">
-        <v>21.9427045873282</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="Y17" t="n">
-        <v>21.9427045873282</v>
+        <v>594.8635884189121</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.9427045873282</v>
+        <v>236.4600493133287</v>
       </c>
       <c r="C18" t="n">
-        <v>21.9427045873282</v>
+        <v>63.70693423514587</v>
       </c>
       <c r="D18" t="n">
-        <v>21.9427045873282</v>
+        <v>63.70693423514587</v>
       </c>
       <c r="E18" t="n">
         <v>21.9427045873282</v>
@@ -5600,16 +5600,16 @@
         <v>168.577974491964</v>
       </c>
       <c r="L18" t="n">
-        <v>359.1441712859057</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M18" t="n">
-        <v>630.6851405540922</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N18" t="n">
-        <v>630.6851405540922</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O18" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P18" t="n">
         <v>1097.13522936641</v>
@@ -5630,16 +5630,16 @@
         <v>403.5026004348891</v>
       </c>
       <c r="V18" t="n">
-        <v>169.25135696049</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="W18" t="n">
-        <v>21.9427045873282</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="X18" t="n">
-        <v>21.9427045873282</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.9427045873282</v>
+        <v>403.5026004348891</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U19" t="n">
         <v>21.9427045873282</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.9427045873282</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="C20" t="n">
-        <v>21.9427045873282</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="D20" t="n">
-        <v>21.9427045873282</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="E20" t="n">
-        <v>21.9427045873282</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="F20" t="n">
-        <v>21.9427045873282</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="G20" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H20" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I20" t="n">
         <v>21.9427045873282</v>
@@ -5755,19 +5755,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K20" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L20" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N20" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O20" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P20" t="n">
         <v>1093.116282134284</v>
@@ -5776,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>1078.323047235033</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S20" t="n">
-        <v>1078.323047235033</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T20" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U20" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V20" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W20" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X20" t="n">
-        <v>576.0514062875353</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.9970554374318</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>306.2741181727158</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="C21" t="n">
-        <v>133.521003094533</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="D21" t="n">
-        <v>133.521003094533</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="E21" t="n">
-        <v>133.521003094533</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="F21" t="n">
-        <v>133.521003094533</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="G21" t="n">
-        <v>133.521003094533</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5831,52 +5831,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L21" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
-        <v>409.2622680873972</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6851405540922</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O21" t="n">
-        <v>898.564759531413</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P21" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S21" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T21" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U21" t="n">
-        <v>1097.13522936641</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8839858920107</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W21" t="n">
-        <v>610.3694942253441</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X21" t="n">
-        <v>403.8425956309216</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y21" t="n">
-        <v>403.8425956309216</v>
+        <v>81.2646594407272</v>
       </c>
     </row>
     <row r="22">
@@ -5940,7 +5940,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U22" t="n">
         <v>21.9427045873282</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C23" t="n">
-        <v>543.0265276662028</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D23" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E23" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F23" t="n">
         <v>21.9427045873282</v>
@@ -6022,19 +6022,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U23" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V23" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W23" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X23" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y23" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>333.7791511073939</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
-        <v>333.7791511073939</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D24" t="n">
-        <v>186.1908444663378</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E24" t="n">
-        <v>186.1908444663378</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
-        <v>186.1908444663378</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G24" t="n">
-        <v>186.1908444663378</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H24" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I24" t="n">
         <v>21.9427045873282</v>
@@ -6077,10 +6077,10 @@
         <v>416.655578933882</v>
       </c>
       <c r="M24" t="n">
-        <v>688.1965482020685</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N24" t="n">
-        <v>959.7375174702549</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O24" t="n">
         <v>1097.13522936641</v>
@@ -6092,28 +6092,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U24" t="n">
-        <v>774.5572931762155</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V24" t="n">
-        <v>540.3060497018164</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W24" t="n">
-        <v>540.3060497018164</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X24" t="n">
-        <v>333.7791511073939</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y24" t="n">
-        <v>333.7791511073939</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="25">
@@ -6174,19 +6174,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X25" t="n">
         <v>21.9427045873282</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G26" t="n">
         <v>21.9427045873282</v>
@@ -6232,19 +6232,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L26" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1689795623911</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N26" t="n">
-        <v>815.0204133003606</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O26" t="n">
-        <v>984.9899813537</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P26" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q26" t="n">
         <v>1097.13522936641</v>
@@ -6259,19 +6259,19 @@
         <v>871.9179392690156</v>
       </c>
       <c r="U26" t="n">
-        <v>617.899996262405</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V26" t="n">
-        <v>340.8456454123015</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W26" t="n">
-        <v>63.79129456219789</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X26" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>724.3642424684999</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C27" t="n">
-        <v>551.6111273903171</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D27" t="n">
-        <v>404.0228207492609</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E27" t="n">
-        <v>246.4132917521156</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F27" t="n">
-        <v>101.4575017687325</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G27" t="n">
         <v>21.9427045873282</v>
@@ -6305,25 +6305,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L27" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M27" t="n">
-        <v>409.2622680873972</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6851405540922</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O27" t="n">
-        <v>898.564759531413</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P27" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
@@ -6338,19 +6338,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U27" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V27" t="n">
-        <v>1097.13522936641</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W27" t="n">
-        <v>1097.13522936641</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X27" t="n">
-        <v>1097.13522936641</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y27" t="n">
-        <v>891.4067935900604</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="28">
@@ -6405,22 +6405,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q28" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W28" t="n">
         <v>21.9427045873282</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C29" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D29" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E29" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F29" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G29" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H29" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I29" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J29" t="n">
         <v>21.9427045873282</v>
@@ -6487,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S29" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T29" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U29" t="n">
-        <v>1097.13522936641</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="V29" t="n">
-        <v>1097.13522936641</v>
+        <v>214.8348805355379</v>
       </c>
       <c r="W29" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X29" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y29" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>573.4835041003568</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="C30" t="n">
-        <v>573.4835041003568</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="D30" t="n">
         <v>573.4835041003568</v>
@@ -6548,13 +6548,13 @@
         <v>168.577974491964</v>
       </c>
       <c r="L30" t="n">
-        <v>168.577974491964</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M30" t="n">
-        <v>440.1189437601505</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N30" t="n">
-        <v>711.659913028337</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O30" t="n">
         <v>817.386591515115</v>
@@ -6566,28 +6566,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S30" t="n">
-        <v>926.4669324920217</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T30" t="n">
-        <v>726.0805366250836</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U30" t="n">
-        <v>573.4835041003568</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V30" t="n">
-        <v>573.4835041003568</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W30" t="n">
-        <v>573.4835041003568</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="X30" t="n">
-        <v>573.4835041003568</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="Y30" t="n">
-        <v>573.4835041003568</v>
+        <v>721.0718107414129</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E31" t="n">
-        <v>948.6760130298451</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M31" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O31" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C32" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D32" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E32" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="F32" t="n">
-        <v>298.9970554374318</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G32" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H32" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I32" t="n">
         <v>21.9427045873282</v>
@@ -6706,19 +6706,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623911</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003606</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813537</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P32" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q32" t="n">
         <v>1097.13522936641</v>
@@ -6727,25 +6727,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>985.5295692163094</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>760.3122791189151</v>
       </c>
       <c r="U32" t="n">
-        <v>843.1172863597994</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="V32" t="n">
-        <v>843.1172863597994</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="W32" t="n">
-        <v>843.1172863597994</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="X32" t="n">
-        <v>843.1172863597994</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="Y32" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>499.1540951430621</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C33" t="n">
-        <v>326.4009800648793</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D33" t="n">
-        <v>178.8126734238232</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E33" t="n">
         <v>21.9427045873282</v>
@@ -6785,19 +6785,19 @@
         <v>168.577974491964</v>
       </c>
       <c r="L33" t="n">
-        <v>168.577974491964</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M33" t="n">
-        <v>440.1189437601505</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N33" t="n">
-        <v>711.659913028337</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O33" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6806,25 +6806,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U33" t="n">
-        <v>499.1540951430621</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V33" t="n">
-        <v>499.1540951430621</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W33" t="n">
-        <v>499.1540951430621</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X33" t="n">
-        <v>499.1540951430621</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y33" t="n">
-        <v>499.1540951430621</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="34">
@@ -6888,13 +6888,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U34" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V34" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W34" t="n">
         <v>21.9427045873282</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>820.0808785163064</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="C35" t="n">
-        <v>543.0265276662028</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="D35" t="n">
-        <v>298.9970554374318</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="E35" t="n">
-        <v>21.9427045873282</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9427045873282</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="G35" t="n">
-        <v>21.9427045873282</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I35" t="n">
         <v>21.9427045873282</v>
@@ -6967,22 +6967,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="X35" t="n">
-        <v>820.0808785163064</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="Y35" t="n">
-        <v>820.0808785163064</v>
+        <v>594.8635884189121</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>324.786742029124</v>
+        <v>281.1093097355891</v>
       </c>
       <c r="C36" t="n">
-        <v>152.0336269509412</v>
+        <v>281.1093097355891</v>
       </c>
       <c r="D36" t="n">
-        <v>152.0336269509412</v>
+        <v>133.521003094533</v>
       </c>
       <c r="E36" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="F36" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="G36" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H36" t="n">
         <v>21.9427045873282</v>
@@ -7016,25 +7016,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K36" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L36" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M36" t="n">
-        <v>476.5364731046047</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N36" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P36" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
@@ -7043,25 +7043,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>926.4669324920217</v>
+        <v>994.8014863586765</v>
       </c>
       <c r="T36" t="n">
-        <v>726.0805366250836</v>
+        <v>994.8014863586765</v>
       </c>
       <c r="U36" t="n">
-        <v>726.0805366250836</v>
+        <v>767.875044876655</v>
       </c>
       <c r="V36" t="n">
-        <v>491.8292931506845</v>
+        <v>533.6238014022558</v>
       </c>
       <c r="W36" t="n">
-        <v>491.8292931506845</v>
+        <v>281.1093097355891</v>
       </c>
       <c r="X36" t="n">
-        <v>491.8292931506845</v>
+        <v>281.1093097355891</v>
       </c>
       <c r="Y36" t="n">
-        <v>491.8292931506845</v>
+        <v>281.1093097355891</v>
       </c>
     </row>
     <row r="37">
@@ -7131,7 +7131,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W37" t="n">
         <v>21.9427045873282</v>
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C38" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D38" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E38" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="F38" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G38" t="n">
-        <v>298.9970554374318</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H38" t="n">
-        <v>21.94270458732819</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I38" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J38" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K38" t="n">
         <v>143.241092649432</v>
@@ -7198,28 +7198,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R38" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S38" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T38" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U38" t="n">
-        <v>853.1057571376389</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="V38" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="W38" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="X38" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="Y38" t="n">
-        <v>576.0514062875353</v>
+        <v>506.2943361123045</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>559.0379855035231</v>
+        <v>418.5064917608844</v>
       </c>
       <c r="C39" t="n">
-        <v>559.0379855035231</v>
+        <v>418.5064917608844</v>
       </c>
       <c r="D39" t="n">
-        <v>411.449678862467</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="E39" t="n">
-        <v>253.8401498653217</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="F39" t="n">
-        <v>108.8843598819386</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G39" t="n">
-        <v>108.8843598819386</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H39" t="n">
         <v>21.9427045873282</v>
@@ -7259,46 +7259,46 @@
         <v>168.577974491964</v>
       </c>
       <c r="L39" t="n">
-        <v>168.577974491964</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M39" t="n">
-        <v>440.1189437601505</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N39" t="n">
-        <v>711.659913028337</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O39" t="n">
-        <v>979.5395320056577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P39" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S39" t="n">
-        <v>926.4669324920217</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T39" t="n">
-        <v>726.0805366250836</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U39" t="n">
-        <v>726.0805366250836</v>
+        <v>418.5064917608844</v>
       </c>
       <c r="V39" t="n">
-        <v>726.0805366250836</v>
+        <v>418.5064917608844</v>
       </c>
       <c r="W39" t="n">
-        <v>726.0805366250836</v>
+        <v>418.5064917608844</v>
       </c>
       <c r="X39" t="n">
-        <v>726.0805366250836</v>
+        <v>418.5064917608844</v>
       </c>
       <c r="Y39" t="n">
-        <v>726.0805366250836</v>
+        <v>418.5064917608844</v>
       </c>
     </row>
     <row r="40">
@@ -7365,10 +7365,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V40" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W40" t="n">
         <v>21.9427045873282</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>265.9721768160992</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="C41" t="n">
-        <v>265.9721768160992</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="D41" t="n">
-        <v>265.9721768160992</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="E41" t="n">
-        <v>265.9721768160992</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F41" t="n">
-        <v>265.9721768160992</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J41" t="n">
         <v>21.9427045873282</v>
@@ -7447,16 +7447,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V41" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W41" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X41" t="n">
-        <v>265.9721768160992</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="Y41" t="n">
-        <v>265.9721768160992</v>
+        <v>853.7716936371969</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>471.8497508018332</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="C42" t="n">
-        <v>299.0966357236504</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="D42" t="n">
-        <v>151.5083290825943</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="E42" t="n">
-        <v>21.9427045873282</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="F42" t="n">
-        <v>21.9427045873282</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G42" t="n">
         <v>21.9427045873282</v>
@@ -7493,22 +7493,22 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K42" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L42" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M42" t="n">
-        <v>359.1441712859057</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N42" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O42" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P42" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
@@ -7520,22 +7520,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>1097.13522936641</v>
+        <v>932.5159126739876</v>
       </c>
       <c r="U42" t="n">
-        <v>1097.13522936641</v>
+        <v>705.5894711919661</v>
       </c>
       <c r="V42" t="n">
-        <v>1097.13522936641</v>
+        <v>471.3382277175671</v>
       </c>
       <c r="W42" t="n">
-        <v>844.6207376997432</v>
+        <v>471.3382277175671</v>
       </c>
       <c r="X42" t="n">
-        <v>844.6207376997432</v>
+        <v>471.3382277175671</v>
       </c>
       <c r="Y42" t="n">
-        <v>638.8923019233937</v>
+        <v>471.3382277175671</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="C43" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="E43" t="n">
         <v>21.9427045873282</v>
@@ -7596,25 +7596,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>202.6630345283467</v>
+        <v>170.401920923893</v>
       </c>
       <c r="T43" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="U43" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="V43" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="W43" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="X43" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.9427045873282</v>
+        <v>170.401920923893</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>576.0514062875353</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="C44" t="n">
-        <v>576.0514062875353</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="D44" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E44" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F44" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G44" t="n">
         <v>21.9427045873282</v>
@@ -7645,10 +7645,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="I44" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J44" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K44" t="n">
         <v>143.241092649432</v>
@@ -7672,28 +7672,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S44" t="n">
-        <v>889.1908336860672</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T44" t="n">
-        <v>663.9735435886729</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U44" t="n">
-        <v>576.0514062875353</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V44" t="n">
-        <v>576.0514062875353</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W44" t="n">
-        <v>576.0514062875353</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="X44" t="n">
-        <v>576.0514062875353</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="Y44" t="n">
-        <v>576.0514062875353</v>
+        <v>243.6355334447542</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="C45" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="D45" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="E45" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="F45" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G45" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H45" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I45" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K45" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L45" t="n">
-        <v>270.0203090292462</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M45" t="n">
-        <v>541.5612782974326</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N45" t="n">
         <v>549.5069725377944</v>
@@ -7769,10 +7769,10 @@
         <v>383.4430527433227</v>
       </c>
       <c r="X45" t="n">
-        <v>176.9161541489002</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="Y45" t="n">
-        <v>21.9427045873282</v>
+        <v>383.4430527433227</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R46" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W46" t="n">
         <v>21.9427045873282</v>
@@ -7981,22 +7981,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
-        <v>272.5352758302076</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O2" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P2" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
         <v>220.8075902863009</v>
@@ -8057,25 +8057,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>188.5924226646379</v>
+        <v>150.7119311045153</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>172.5974196195541</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>184.8220668936099</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
         <v>136.482229733871</v>
@@ -8218,25 +8218,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L5" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
-        <v>272.5352758302076</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N5" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O5" t="n">
-        <v>224.3457561361446</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P5" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8297,25 +8297,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5924226646379</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>172.5974196195541</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>184.8220668936099</v>
+        <v>249.4085799166004</v>
       </c>
       <c r="Q6" t="n">
-        <v>190.6792493985089</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8455,25 +8455,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L8" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M8" t="n">
-        <v>272.5352758302076</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N8" t="n">
-        <v>223.6777370066762</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O8" t="n">
-        <v>224.3457561361446</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P8" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8540,19 +8540,19 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>389.722084928306</v>
       </c>
       <c r="N9" t="n">
-        <v>182.2551889458879</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>183.5705886716374</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>184.8220668936099</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>190.6792493985089</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8692,22 +8692,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
-        <v>272.2934545697612</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P11" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8768,25 +8768,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>183.119933412272</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N12" t="n">
-        <v>182.2551889458879</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>184.8220668936099</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
         <v>136.482229733871</v>
@@ -8929,25 +8929,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N14" t="n">
-        <v>271.6254354402928</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>224.3457561361446</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P14" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9008,25 +9008,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>178.9346533383041</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>189.2875399500152</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>192.7777027386057</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N15" t="n">
-        <v>182.2551889458879</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9175,7 +9175,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N17" t="n">
-        <v>454.8408013884635</v>
+        <v>454.8408013884634</v>
       </c>
       <c r="O17" t="n">
         <v>396.0321885132552</v>
@@ -9248,19 +9248,19 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>327.5816281580458</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>270.5420704802609</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q18" t="n">
         <v>136.482229733871</v>
@@ -9403,7 +9403,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L20" t="n">
         <v>434.3676631324684</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9488,19 +9488,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N21" t="n">
-        <v>351.7176364193258</v>
+        <v>188.5439209688487</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9725,13 +9725,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>281.0645842729788</v>
       </c>
       <c r="N24" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O24" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
         <v>130.625047228972</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9962,19 +9962,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N27" t="n">
-        <v>351.7176364193258</v>
+        <v>188.5439209688487</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10196,16 +10196,16 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>402.3419766228525</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O30" t="n">
-        <v>245.8259630674526</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
         <v>331.2012793855346</v>
@@ -10433,22 +10433,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155703</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N33" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>245.8259630674526</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10673,19 +10673,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>206.5344255155917</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N36" t="n">
-        <v>402.3419766228525</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10907,22 +10907,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
-        <v>402.3419766228525</v>
+        <v>270.5420704802609</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>167.4104304051884</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11141,16 +11141,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>221.1367956094978</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N42" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11375,19 +11375,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
-        <v>136.0841230593931</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -22552,10 +22552,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F2" t="n">
         <v>407.2938634805408</v>
@@ -22564,7 +22564,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H2" t="n">
-        <v>283.9468837235155</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
         <v>205.224307868124</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>151.6679320589013</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>100.4207186257561</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22612,10 +22612,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>323.1248642105563</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.4900520865979</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -22646,7 +22646,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>38.76680854485863</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40.49796009645333</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>114.7645942410065</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>144.1855122436308</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>104.1537809005699</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
@@ -22731,7 +22731,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>226.7848080616464</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -22767,7 +22767,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D5" t="n">
         <v>356.6047327545984</v>
@@ -22795,19 +22795,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>360.2164056944902</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>360.657745739193</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>283.9468837235155</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>129.272421624686</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -22871,16 +22871,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>101.8364140425359</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>89.3092124189114</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>88.28647528442929</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>56.26549585749488</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -22928,10 +22928,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>153.4115115472289</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
-        <v>226.7848080616464</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
         <v>286.0522703910642</v>
@@ -23004,7 +23004,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E8" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>360.2164056944902</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>360.657745739193</v>
+        <v>315.1164105982247</v>
       </c>
       <c r="H8" t="n">
-        <v>283.9468837235155</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -23083,7 +23083,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
@@ -23111,16 +23111,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>89.3092124189114</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>81.82619054040443</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>56.26549585749488</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>38.76680854485863</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>83.95823344184689</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -23205,7 +23205,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>226.7848080616464</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -23241,7 +23241,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -23269,19 +23269,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>360.2164056944902</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G11" t="n">
-        <v>360.657745739193</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H11" t="n">
-        <v>283.9468837235155</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.4777635765444</v>
@@ -23326,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>235.6300268004474</v>
       </c>
     </row>
     <row r="12">
@@ -23387,25 +23387,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>121.2248789850314</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>144.1855122436308</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
-        <v>170.4601574025633</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V12" t="n">
-        <v>177.7117113750172</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3419310002468</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4370523442789</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>99.56152713276573</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J13" t="n">
-        <v>34.64182526314104</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23506,19 +23506,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>360.2164056944902</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G14" t="n">
-        <v>360.657745739193</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H14" t="n">
-        <v>283.9468837235155</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I14" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>331.9060566904916</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>121.2248789850314</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>144.1855122436308</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>170.4601574025633</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>177.7117113750172</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="16">
@@ -23661,25 +23661,25 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>141.4526452013731</v>
       </c>
       <c r="F16" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3419310002468</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4370523442789</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>99.56152713276573</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>34.64182526314104</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>348.3610353688796</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
@@ -23749,7 +23749,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
-        <v>86.25127718860955</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>114.6868463558343</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -23870,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>104.1537809005699</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -23943,10 +23943,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U19" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
@@ -23980,16 +23980,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>246.0569111247462</v>
       </c>
       <c r="H20" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0.6592771345624158</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>123.2267623908142</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
         <v>251.4777635765444</v>
@@ -24034,7 +24034,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>112.4032644096333</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.77933292672115</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -24065,7 +24065,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>51.73378021726776</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
@@ -24104,7 +24104,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T22" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E23" t="n">
         <v>108.834228413685</v>
       </c>
       <c r="F23" t="n">
-        <v>165.7046859740575</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
         <v>414.8547654038309</v>
@@ -24262,7 +24262,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>9.888586070061081</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24271,7 +24271,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24290,7 +24290,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -24302,10 +24302,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>34.36040050738499</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
         <v>168.9616139056444</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="25">
@@ -24414,7 +24414,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S25" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T25" t="n">
         <v>228.3324659915077</v>
@@ -24429,7 +24429,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24454,10 +24454,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H26" t="n">
         <v>338.1439033881534</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>232.8537032664814</v>
       </c>
       <c r="V26" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>329.4314950560484</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>57.30356099545209</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
         <v>110.4625155221328</v>
@@ -24578,19 +24578,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="28">
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
         <v>222.3574069614225</v>
@@ -24663,7 +24663,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>126.0551953070217</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
@@ -24703,7 +24703,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>159.566862811827</v>
       </c>
       <c r="X29" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>73.58611486772165</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>141.3431559779887</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -24846,10 +24846,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>114.2205189413953</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>167.8895889301081</v>
@@ -24900,7 +24900,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24928,7 +24928,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
         <v>140.5709580622284</v>
@@ -24937,7 +24937,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0.6592771345624158</v>
@@ -24967,10 +24967,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>95.37534817493969</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>122.2918504796943</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -24998,13 +24998,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7321645590438095</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -25046,25 +25046,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25128,7 +25128,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T34" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U34" t="n">
         <v>286.0522703910642</v>
@@ -25137,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25156,25 +25156,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H35" t="n">
-        <v>338.1439033881534</v>
+        <v>250.4603436046119</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0.6592771345624158</v>
@@ -25207,19 +25207,19 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>27.24342056719695</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -25250,7 +25250,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>86.50354346547167</v>
@@ -25283,19 +25283,19 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>67.65120832798827</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -25371,10 +25371,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V37" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25408,10 +25408,10 @@
         <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0.6592771345624158</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.888586070061081</v>
+        <v>237.2261708758167</v>
       </c>
       <c r="V38" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -25478,16 +25478,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>24.39027678046851</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>86.50354346547167</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>14.85385241273534</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25605,13 +25605,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U40" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25630,19 +25630,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>173.2655878973476</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25651,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>96.5777917895669</v>
+        <v>129.9316987592485</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -25709,19 +25709,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>27.76346545686042</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>110.4625155221328</v>
@@ -25760,22 +25760,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>35.40940838277058</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>146.1590214098045</v>
@@ -25836,10 +25836,10 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>222.3574069614225</v>
+        <v>190.4189044930133</v>
       </c>
       <c r="T43" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U43" t="n">
         <v>286.0522703910642</v>
@@ -25870,16 +25870,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>137.1288321857467</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>164.4348476484182</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
@@ -25955,16 +25955,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>118.6101566017615</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>50.24743635262973</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -26070,10 +26070,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R46" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>222.3574069614225</v>
+        <v>216.8354279895965</v>
       </c>
       <c r="T46" t="n">
         <v>228.3324659915077</v>
@@ -26085,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>363228.7280991844</v>
+        <v>519531.3715270524</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>363228.7280991843</v>
+        <v>519531.3715270524</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>363228.7280991843</v>
+        <v>519531.3715270524</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363228.7280991843</v>
+        <v>519531.3715270524</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363228.7280991843</v>
+        <v>519531.3715270524</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>519531.3715270524</v>
+        <v>519531.3715270525</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>519531.3715270523</v>
+        <v>519531.3715270524</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519531.3715270525</v>
+        <v>519531.3715270524</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60538.12134986404</v>
+        <v>86588.56192117537</v>
       </c>
       <c r="C2" t="n">
-        <v>60538.12134986404</v>
+        <v>86588.56192117541</v>
       </c>
       <c r="D2" t="n">
-        <v>60538.12134986405</v>
+        <v>86588.56192117535</v>
       </c>
       <c r="E2" t="n">
-        <v>60538.12134986406</v>
+        <v>86588.56192117537</v>
       </c>
       <c r="F2" t="n">
-        <v>60538.12134986404</v>
+        <v>86588.56192117535</v>
       </c>
       <c r="G2" t="n">
+        <v>86588.56192117539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>86588.56192117538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>86588.56192117538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>86588.56192117538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>86588.56192117534</v>
+      </c>
+      <c r="L2" t="n">
+        <v>86588.56192117534</v>
+      </c>
+      <c r="M2" t="n">
+        <v>86588.56192117535</v>
+      </c>
+      <c r="N2" t="n">
+        <v>86588.56192117535</v>
+      </c>
+      <c r="O2" t="n">
+        <v>86588.56192117535</v>
+      </c>
+      <c r="P2" t="n">
         <v>86588.56192117537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>86588.56192117534</v>
-      </c>
-      <c r="I2" t="n">
-        <v>86588.56192117537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>86588.56192117535</v>
-      </c>
-      <c r="K2" t="n">
-        <v>86588.56192117535</v>
-      </c>
-      <c r="L2" t="n">
-        <v>86588.56192117535</v>
-      </c>
-      <c r="M2" t="n">
-        <v>86588.56192117537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>86588.56192117538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>86588.56192117538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>86588.56192117538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18162.66782107245</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>60322.48720044085</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14180.32501313452</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52964.10554124921</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.84313727727405</v>
+        <v>205.3193574873218</v>
       </c>
       <c r="C4" t="n">
-        <v>45.84313727727405</v>
+        <v>205.3193574873218</v>
       </c>
       <c r="D4" t="n">
-        <v>45.84313727727405</v>
+        <v>205.3193574873218</v>
       </c>
       <c r="E4" t="n">
-        <v>45.84313727727404</v>
+        <v>205.3193574873218</v>
       </c>
       <c r="F4" t="n">
-        <v>45.84313727727404</v>
+        <v>205.3193574873218</v>
       </c>
       <c r="G4" t="n">
         <v>205.3193574873218</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="C5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="D5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="F5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="G5" t="n">
         <v>16676.45548636943</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5406.831595904332</v>
+        <v>-67528.7543136771</v>
       </c>
       <c r="C6" t="n">
-        <v>23569.49941697677</v>
+        <v>24390.05805406279</v>
       </c>
       <c r="D6" t="n">
-        <v>23569.49941697679</v>
+        <v>24390.05805406273</v>
       </c>
       <c r="E6" t="n">
-        <v>57197.0994169768</v>
+        <v>58017.65805406274</v>
       </c>
       <c r="F6" t="n">
-        <v>57197.09941697678</v>
+        <v>58017.65805406274</v>
       </c>
       <c r="G6" t="n">
-        <v>9384.299876877762</v>
+        <v>58017.65805406276</v>
       </c>
       <c r="H6" t="n">
-        <v>69706.78707731859</v>
+        <v>58017.65805406277</v>
       </c>
       <c r="I6" t="n">
-        <v>69706.78707731862</v>
+        <v>58017.65805406276</v>
       </c>
       <c r="J6" t="n">
-        <v>55526.4620641841</v>
+        <v>-13747.05443402349</v>
       </c>
       <c r="K6" t="n">
-        <v>69706.78707731862</v>
+        <v>58017.65805406271</v>
       </c>
       <c r="L6" t="n">
-        <v>69706.78707731862</v>
+        <v>58017.65805406271</v>
       </c>
       <c r="M6" t="n">
-        <v>69706.78707731862</v>
+        <v>58017.65805406274</v>
       </c>
       <c r="N6" t="n">
-        <v>69706.78707731864</v>
+        <v>58017.65805406274</v>
       </c>
       <c r="O6" t="n">
-        <v>16742.68153606942</v>
+        <v>58017.65805406273</v>
       </c>
       <c r="P6" t="n">
-        <v>69706.78707731864</v>
+        <v>58017.65805406274</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G4" t="n">
         <v>274.2838073416025</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
-        <v>47.94769843361666</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N2" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O2" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P2" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
         <v>4.059542658712616</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.19701966463789</v>
+        <v>16.31652810451528</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>44.53925033830414</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>47.94769843361666</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N5" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P5" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>54.19701966463789</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>44.53925033830414</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>54.19701966463789</v>
+        <v>118.7835326876285</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L8" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M8" t="n">
-        <v>47.94769843361666</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P8" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>251.1414018543382</v>
       </c>
       <c r="N9" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>44.53925033830414</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>54.19701966463789</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.19701966463789</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M11" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N11" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O11" t="n">
-        <v>47.94769843361666</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P11" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
         <v>4.059542658712616</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
-        <v>44.53925033830414</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
-        <v>54.19701966463789</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L14" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M14" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N14" t="n">
-        <v>47.94769843361666</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
-        <v>44.53925033830414</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L15" t="n">
-        <v>54.19701966463789</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
-        <v>54.19701966463789</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N15" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O17" t="n">
-        <v>171.6864323771105</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P17" t="n">
         <v>109.2184856369541</v>
@@ -35968,19 +35968,19 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L18" t="n">
-        <v>192.4911078726684</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>142.4839011990109</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L20" t="n">
         <v>204.4954085367308</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
         <v>140.6484434930818</v>
@@ -36208,19 +36208,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N21" t="n">
-        <v>223.6594671380758</v>
+        <v>60.48575168759873</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P21" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>142.4839011990109</v>
       </c>
       <c r="N24" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O24" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
         <v>140.6484434930818</v>
@@ -36682,19 +36682,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N27" t="n">
-        <v>223.6594671380758</v>
+        <v>60.48575168759873</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O30" t="n">
-        <v>106.7946247341192</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
         <v>200.5762321565626</v>
@@ -37153,22 +37153,22 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>106.7946247341192</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
         <v>140.6484434930818</v>
@@ -37393,19 +37393,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
-        <v>67.95374244162382</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2838073416025</v>
+        <v>142.4839011990109</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>36.7853831762164</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L42" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>82.55611253552989</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
@@ -37879,7 +37879,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L45" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>8.025953778143149</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O45" t="n">
         <v>270.5854737144654</v>
